--- a/inst/extdata/Testing_irreversibility/Testing_irreversibility.xlsx
+++ b/inst/extdata/Testing_irreversibility/Testing_irreversibility.xlsx
@@ -8,40 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing_irreversibility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8C8B36-F851-5846-A838-AAEE9DD5BCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73C2362-6227-C14F-ADD8-8CF76F59E9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50020" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50020" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="E_Final_2000" sheetId="5" r:id="rId1"/>
-    <sheet name="X_Final_2000" sheetId="7" r:id="rId2"/>
-    <sheet name="Checks" sheetId="9" r:id="rId3"/>
+    <sheet name="Readme" sheetId="10" r:id="rId1"/>
+    <sheet name="E_Final_2000" sheetId="5" r:id="rId2"/>
+    <sheet name="X_Final_2000" sheetId="7" r:id="rId3"/>
+    <sheet name="Checks" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="R_" localSheetId="2">Checks!$A$69:$O$71</definedName>
-    <definedName name="R_" localSheetId="0">E_Final_2000!$A$62:$M$64</definedName>
-    <definedName name="R_" localSheetId="1">X_Final_2000!$A$68:$O$70</definedName>
-    <definedName name="r_EIOU" localSheetId="2">Checks!$AD$2:$AO$16</definedName>
-    <definedName name="r_EIOU" localSheetId="0">E_Final_2000!$AB$1:$AK$13</definedName>
-    <definedName name="r_EIOU" localSheetId="1">X_Final_2000!$AD$1:$AM$15</definedName>
-    <definedName name="S_units" localSheetId="2">Checks!$A$2:$B$16</definedName>
-    <definedName name="S_units" localSheetId="0">E_Final_2000!$A$1:$B$13</definedName>
-    <definedName name="S_units" localSheetId="1">X_Final_2000!$A$1:$B$15</definedName>
-    <definedName name="U" localSheetId="2">Checks!$R$38:$AA$52</definedName>
-    <definedName name="U" localSheetId="0">E_Final_2000!$P$33:$Y$45</definedName>
-    <definedName name="U" localSheetId="1">X_Final_2000!$R$37:$AA$51</definedName>
-    <definedName name="U_EIOU" localSheetId="2">Checks!$R$2:$AA$16</definedName>
-    <definedName name="U_EIOU" localSheetId="0">E_Final_2000!$P$1:$Y$13</definedName>
-    <definedName name="U_EIOU" localSheetId="1">X_Final_2000!$R$1:$AA$15</definedName>
-    <definedName name="U_feed" localSheetId="2">Checks!$R$20:$AA$34</definedName>
-    <definedName name="U_feed" localSheetId="0">E_Final_2000!$P$17:$Y$29</definedName>
-    <definedName name="U_feed" localSheetId="1">X_Final_2000!$R$19:$AA$33</definedName>
-    <definedName name="V" localSheetId="2">Checks!$A$56:$O$65</definedName>
-    <definedName name="V" localSheetId="0">E_Final_2000!$A$49:$M$58</definedName>
-    <definedName name="V" localSheetId="1">X_Final_2000!$A$55:$O$64</definedName>
-    <definedName name="Y" localSheetId="2">Checks!$AD$38:$AF$52</definedName>
-    <definedName name="Y" localSheetId="0">E_Final_2000!$AB$33:$AD$45</definedName>
-    <definedName name="Y" localSheetId="1">X_Final_2000!$AD$37:$AH$51</definedName>
+    <definedName name="R_" localSheetId="3">Checks!$A$69:$O$71</definedName>
+    <definedName name="R_" localSheetId="1">E_Final_2000!$A$62:$M$64</definedName>
+    <definedName name="R_" localSheetId="2">X_Final_2000!$A$68:$O$70</definedName>
+    <definedName name="r_EIOU" localSheetId="3">Checks!$AD$2:$AO$16</definedName>
+    <definedName name="r_EIOU" localSheetId="1">E_Final_2000!$AB$1:$AK$13</definedName>
+    <definedName name="r_EIOU" localSheetId="2">X_Final_2000!$AD$1:$AM$15</definedName>
+    <definedName name="S_units" localSheetId="3">Checks!$A$2:$B$16</definedName>
+    <definedName name="S_units" localSheetId="1">E_Final_2000!$A$1:$B$13</definedName>
+    <definedName name="S_units" localSheetId="2">X_Final_2000!$A$1:$B$15</definedName>
+    <definedName name="U" localSheetId="3">Checks!$R$38:$AA$52</definedName>
+    <definedName name="U" localSheetId="1">E_Final_2000!$P$33:$Y$45</definedName>
+    <definedName name="U" localSheetId="2">X_Final_2000!$R$37:$AA$51</definedName>
+    <definedName name="U_EIOU" localSheetId="3">Checks!$R$2:$AA$16</definedName>
+    <definedName name="U_EIOU" localSheetId="1">E_Final_2000!$P$1:$Y$13</definedName>
+    <definedName name="U_EIOU" localSheetId="2">X_Final_2000!$R$1:$AA$15</definedName>
+    <definedName name="U_feed" localSheetId="3">Checks!$R$20:$AA$34</definedName>
+    <definedName name="U_feed" localSheetId="1">E_Final_2000!$P$17:$Y$29</definedName>
+    <definedName name="U_feed" localSheetId="2">X_Final_2000!$R$19:$AA$33</definedName>
+    <definedName name="V" localSheetId="3">Checks!$A$56:$O$65</definedName>
+    <definedName name="V" localSheetId="1">E_Final_2000!$A$49:$M$58</definedName>
+    <definedName name="V" localSheetId="2">X_Final_2000!$A$55:$O$64</definedName>
+    <definedName name="Y" localSheetId="3">Checks!$AD$38:$AF$52</definedName>
+    <definedName name="Y" localSheetId="1">E_Final_2000!$AB$33:$AD$45</definedName>
+    <definedName name="Y" localSheetId="2">X_Final_2000!$AD$37:$AH$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="77">
   <si>
     <t>ktoe</t>
   </si>
@@ -518,6 +519,27 @@
   <si>
     <t>Intra-industry balance gives destroyed exergy</t>
   </si>
+  <si>
+    <t xml:space="preserve">This file contains calculations of exergy destruction (irreversibility) for the example ECC of Heun et al (2018) </t>
+  </si>
+  <si>
+    <t>Tabs:</t>
+  </si>
+  <si>
+    <t>E_Final_2000: The energy conversion chain (ECC) with losses not accounted. This conversion chain comes from the UKEnergy2000mats object in the Recca package.</t>
+  </si>
+  <si>
+    <t>X_Final_2000: The exergy conversion chain (XCC) in which losses and exergy destruction (irreversibilities) are endogenized. This version is the output of the function extend_to_exergy_with_losses_irrev().</t>
+  </si>
+  <si>
+    <t>Checks: Starts with E_Final_2000 and converts to exergy with endogenized losses and irreversibility. Compares to X_Final_2000, checking for equality.</t>
+  </si>
+  <si>
+    <t>--- Matthew Kuperus Heun, 15 Jan 2026</t>
+  </si>
+  <si>
+    <t>This file is the basis for tests for the function extend_to_exergy_with_losses_irrev().</t>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -716,6 +738,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1143,6 +1166,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37160BD0-5B0C-8D4D-B8AE-80F4F54225B9}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK65"/>
   <sheetViews>
@@ -3620,7 +3699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AM71"/>
   <sheetViews>
@@ -6541,12 +6620,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9273644-B629-5F45-9A68-323450968119}">
   <dimension ref="A1:IG87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DR69" zoomScale="88" workbookViewId="0">
-      <selection activeCell="EN88" sqref="EN88"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/Testing_irreversibility/Testing_irreversibility.xlsx
+++ b/inst/extdata/Testing_irreversibility/Testing_irreversibility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing_irreversibility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73C2362-6227-C14F-ADD8-8CF76F59E9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE6491-3657-A442-BE81-635EFB5B3873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50020" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50020" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37160BD0-5B0C-8D4D-B8AE-80F4F54225B9}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -6624,8 +6624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9273644-B629-5F45-9A68-323450968119}">
   <dimension ref="A1:IG87"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="FB20" zoomScale="88" workbookViewId="0">
+      <selection activeCell="GI42" sqref="GI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
